--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,30 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>disappointment</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointment</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -76,31 +76,31 @@
     <t>inches</t>
   </si>
   <si>
-    <t>loose</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>low</t>
   </si>
   <si>
     <t>small</t>
@@ -109,192 +109,192 @@
     <t>missing</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>fl</t>
   </si>
   <si>
-    <t>pay</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>could</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>5</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>expected</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>get</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -310,48 +310,45 @@
     <t>love</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>enjoyed</t>
   </si>
   <si>
@@ -361,25 +358,19 @@
     <t>fun</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>playing</t>
   </si>
   <si>
     <t>play</t>
@@ -757,7 +748,7 @@
         <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -865,13 +856,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9047619047619048</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -907,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,13 +906,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8863636363636364</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -939,13 +930,13 @@
         <v>91</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,13 +956,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -983,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K6">
-        <v>0.85</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1015,13 +1006,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1139,13 +1130,13 @@
         <v>95</v>
       </c>
       <c r="K9">
-        <v>0.6981132075471698</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1157,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1165,13 +1156,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.71875</v>
+        <v>0.734375</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>96</v>
@@ -1215,13 +1206,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7142857142857143</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K11">
-        <v>0.5667144906743186</v>
+        <v>0.5652797704447633</v>
       </c>
       <c r="L11">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M11">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1257,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1289,13 +1280,13 @@
         <v>98</v>
       </c>
       <c r="K12">
-        <v>0.524896265560166</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L12">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>229</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1306,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7096774193548387</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="C13">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K13">
-        <v>0.5217391304347826</v>
+        <v>0.508298755186722</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1389,13 +1380,13 @@
         <v>100</v>
       </c>
       <c r="K14">
-        <v>0.4581967213114754</v>
+        <v>0.4540983606557377</v>
       </c>
       <c r="L14">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M14">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,13 +1406,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>101</v>
       </c>
       <c r="K15">
-        <v>0.3584905660377358</v>
+        <v>0.3608562691131498</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1465,13 +1456,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6363636363636364</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1483,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>102</v>
       </c>
       <c r="K16">
-        <v>0.3516819571865443</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>212</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,13 +1506,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6283783783783784</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C17">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D17">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1533,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="K17">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1556,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.616504854368932</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>104</v>
       </c>
       <c r="K18">
-        <v>0.3192771084337349</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L18">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1607,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,13 +1606,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5952380952380952</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>105</v>
@@ -1665,13 +1656,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5630252100840336</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K20">
-        <v>0.3015873015873016</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1707,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,13 +1706,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1733,19 +1724,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K21">
-        <v>0.2727272727272727</v>
+        <v>0.234375</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1757,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,37 +1756,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5428571428571428</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>19</v>
-      </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K22">
-        <v>0.203125</v>
+        <v>0.192</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1806,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5428571428571428</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,19 +1824,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="K23">
-        <v>0.1935483870967742</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1857,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1865,13 +1856,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4985507246376812</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C24">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D24">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1883,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>110</v>
       </c>
       <c r="K24">
-        <v>0.1724137931034483</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1907,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,13 +1906,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4888888888888889</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1933,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K25">
-        <v>0.1678321678321678</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1957,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,13 +1956,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4698795180722892</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1983,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>112</v>
       </c>
       <c r="K26">
-        <v>0.1666666666666667</v>
+        <v>0.1646586345381526</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2007,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>105</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,13 +2006,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4444444444444444</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,19 +2024,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>113</v>
       </c>
       <c r="K27">
-        <v>0.1606425702811245</v>
+        <v>0.1446099912357581</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>209</v>
+        <v>976</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,13 +2056,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4285714285714285</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2083,31 +2074,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>114</v>
       </c>
       <c r="K28">
-        <v>0.1463628396143734</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L28">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="M28">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>974</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,13 +2106,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4210526315789473</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2133,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>115</v>
       </c>
       <c r="K29">
-        <v>0.1452991452991453</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2157,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2165,13 +2156,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4074074074074074</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,31 +2174,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K30">
-        <v>0.136</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>108</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2215,13 +2206,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.40625</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C31">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2233,31 +2224,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="K31">
-        <v>0.0792722547108512</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="L31">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1417</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,13 +2256,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3937007874015748</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2283,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K32">
-        <v>0.06684491978609626</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2307,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>349</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2315,13 +2306,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.390625</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2333,31 +2324,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>119</v>
       </c>
       <c r="K33">
-        <v>0.0622568093385214</v>
+        <v>0.044</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>241</v>
+        <v>717</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,13 +2356,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3846153846153846</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2383,31 +2374,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="K34">
-        <v>0.06206896551724138</v>
+        <v>0.02133712660028449</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>272</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2415,13 +2406,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3818181818181818</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C35">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2433,31 +2424,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35">
-        <v>0.06128133704735376</v>
-      </c>
-      <c r="L35">
-        <v>22</v>
-      </c>
-      <c r="M35">
-        <v>22</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>337</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,13 +2432,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3809523809523809</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2483,31 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>26</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K36">
-        <v>0.04</v>
-      </c>
-      <c r="L36">
-        <v>30</v>
-      </c>
-      <c r="M36">
-        <v>32</v>
-      </c>
-      <c r="N36">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>720</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,13 +2458,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3809523809523809</v>
+        <v>0.359375</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2533,31 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>39</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K37">
-        <v>0.02844950213371266</v>
-      </c>
-      <c r="L37">
-        <v>20</v>
-      </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>0.91</v>
-      </c>
-      <c r="O37">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>683</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2565,13 +2484,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3720930232558139</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2583,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2591,13 +2510,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3703703703703703</v>
+        <v>0.3459715639810427</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2609,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2617,13 +2536,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3601895734597156</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C40">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2635,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>135</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2643,13 +2562,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2661,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2669,13 +2588,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3483146067415731</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2687,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2695,13 +2614,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3368421052631579</v>
+        <v>0.3125</v>
       </c>
       <c r="C43">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2713,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2721,13 +2640,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3103448275862069</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2739,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2747,13 +2666,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3015873015873016</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2773,13 +2692,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2835820895522388</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2791,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2799,13 +2718,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2753623188405797</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2817,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2825,13 +2744,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2673267326732673</v>
+        <v>0.2425742574257426</v>
       </c>
       <c r="C48">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D48">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2843,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2851,13 +2770,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2622950819672131</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C49">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2869,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2877,13 +2796,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2564102564102564</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2895,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2903,13 +2822,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2244897959183673</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2921,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2929,13 +2848,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1958762886597938</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C52">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2947,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2955,13 +2874,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.195</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C53">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2973,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>161</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2981,13 +2900,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.177536231884058</v>
+        <v>0.185</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D54">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2999,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>227</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3007,13 +2926,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1694915254237288</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3025,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3033,25 +2952,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1664190193164933</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C56">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="D56">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="E56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>561</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3059,13 +2978,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1592356687898089</v>
+        <v>0.1702898550724638</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3077,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>132</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3085,13 +3004,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1582278481012658</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3103,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>266</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3111,13 +3030,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1580459770114943</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C59">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D59">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3129,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>293</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3137,25 +3056,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1574074074074074</v>
+        <v>0.161961367013373</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>91</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3163,25 +3082,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.154639175257732</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3189,13 +3108,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.15</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D62">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3207,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>119</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3215,22 +3134,22 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1455696202531646</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C63">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D63">
         <v>46</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>270</v>
@@ -3241,25 +3160,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1428571428571428</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C64">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E64">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>228</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3267,25 +3186,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1417322834645669</v>
+        <v>0.1214128035320088</v>
       </c>
       <c r="C65">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F65">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>109</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3293,7 +3212,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1314285714285714</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C66">
         <v>23</v>
@@ -3311,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3319,13 +3238,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1308411214953271</v>
+        <v>0.12</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D67">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3337,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3345,13 +3264,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1256544502617801</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D68">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3363,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>167</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3371,13 +3290,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1211453744493392</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3389,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>399</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3397,25 +3316,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1048387096774194</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>222</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3423,13 +3342,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1038251366120219</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="C71">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3441,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3475,13 +3394,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.09740259740259741</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3493,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3501,25 +3420,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0851063829787234</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C74">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E74">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>172</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3527,13 +3446,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0821917808219178</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3545,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>335</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3553,25 +3472,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.07344632768361582</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C76">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D76">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E76">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3579,25 +3498,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06754530477759473</v>
+        <v>0.06260296540362438</v>
       </c>
       <c r="C77">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D77">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E77">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F77">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3605,25 +3524,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06473214285714286</v>
+        <v>0.06115107913669065</v>
       </c>
       <c r="C78">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D78">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E78">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="F78">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>419</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3631,25 +3550,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06071428571428571</v>
+        <v>0.0444104134762634</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>263</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3657,25 +3576,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04906542056074766</v>
+        <v>0.04435994930291508</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D80">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E80">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="F80">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>407</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3683,25 +3602,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.04695431472081218</v>
+        <v>0.04428904428904429</v>
       </c>
       <c r="C81">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D81">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="F81">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>751</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3709,25 +3628,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.04141104294478527</v>
+        <v>0.0351288056206089</v>
       </c>
       <c r="C82">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D82">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E82">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F82">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>625</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
